--- a/source_data/cohorts.xlsx
+++ b/source_data/cohorts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="0" windowWidth="25600" windowHeight="16260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14440" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="49">
   <si>
     <t>Control</t>
   </si>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +194,22 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,8 +228,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -221,10 +239,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -582,690 +612,1374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:B168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>14286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>29962</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>29707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29665</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="1">
+        <v>29939</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1">
+        <v>14161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29705</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1">
+        <v>29654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="1">
+        <v>29898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="1">
+        <v>29631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="1">
+        <v>14277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1">
+        <v>14184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1">
+        <v>14204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="1">
+        <v>14182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="1">
+        <v>29666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="1">
+        <v>29945</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="1">
+        <v>14271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="1">
+        <v>29867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>29706</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>29876</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1">
+        <v>14315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B31" s="1">
+        <v>14262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>29765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>14159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>14205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>29752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>29875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>29644</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>29914</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
+        <v>14276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1">
+        <v>14172</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>14233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
+        <v>29792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>29864</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>29778</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
+        <v>14317</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1">
+        <v>29742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>14273</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1">
+        <v>29846</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B49" s="1">
+        <v>29924</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="1">
+        <v>14209</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="1">
+        <v>14284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B52" s="1">
+        <v>14275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1">
+        <v>14188</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="1">
+        <v>14307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="1">
+        <v>14183</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B56" s="1">
+        <v>14306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="1">
+        <v>29901</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1">
+        <v>14163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1">
+        <v>14308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1">
+        <v>29700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1">
+        <v>29704</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>29863</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>29692</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="1">
+        <v>14231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="1">
+        <v>14162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1">
+        <v>14288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B67" s="1">
+        <v>29961</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
+        <v>14295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69" s="1">
+        <v>29652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="1">
+        <v>14194</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="1">
+        <v>29691</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" s="1">
+        <v>14174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="1">
+        <v>29951</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="1">
+        <v>29703</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75" s="1">
+        <v>29934</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76" s="1">
+        <v>14193</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="1">
+        <v>29865</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78" s="1">
+        <v>14201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B79" s="1">
+        <v>29667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
+        <v>14298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="1">
+        <v>29931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="1">
+        <v>29754</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B83" s="1">
+        <v>14320</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B84" s="1">
+        <v>14287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>14286</v>
-      </c>
-      <c r="B2" s="1">
-        <v>14262</v>
-      </c>
-      <c r="C2" s="1">
-        <v>29924</v>
-      </c>
-      <c r="D2" s="1">
-        <v>29961</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B85" s="1">
         <v>29900</v>
       </c>
-      <c r="F2" s="2">
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="1">
+        <v>14297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" s="1">
+        <v>14274</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" s="1">
+        <v>29679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" s="1">
+        <v>29943</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" s="1">
+        <v>14263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="1">
+        <v>29702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" s="1">
+        <v>29715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" s="1">
+        <v>14260</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="1">
+        <v>14195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" s="1">
+        <v>29655</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" s="1">
+        <v>14171</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" s="1">
+        <v>29745</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" s="1">
+        <v>29645</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="1">
+        <v>29643</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" s="1">
+        <v>14261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" s="1">
+        <v>14186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="1">
+        <v>29646</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="2">
         <v>14305</v>
       </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="2">
+        <v>29949</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="2">
+        <v>29781</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2">
+        <v>29668</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="2">
+        <v>14265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="2">
+        <v>29653</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="2">
+        <v>29793</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="2">
+        <v>14208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="2">
+        <v>14190</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="2">
+        <v>29797</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="2">
+        <v>29796</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="2">
+        <v>29777</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="2">
+        <v>29847</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="2">
+        <v>14192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2">
+        <v>29753</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="2">
+        <v>29743</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="2">
+        <v>29718</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="2">
+        <v>29694</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="1">
+        <v>29633</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="1">
+        <v>29693</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="1">
+        <v>29946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="1">
+        <v>29647</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" s="1">
+        <v>29804</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" s="1">
+        <v>14207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>29962</v>
-      </c>
-      <c r="B3" s="1">
-        <v>29765</v>
-      </c>
-      <c r="C3" s="1">
-        <v>14209</v>
-      </c>
-      <c r="D3" s="1">
-        <v>14295</v>
-      </c>
-      <c r="E3" s="1">
-        <v>14297</v>
-      </c>
-      <c r="F3" s="2">
-        <v>29949</v>
-      </c>
-      <c r="G3" s="3" t="s">
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>29707</v>
-      </c>
-      <c r="B4" s="1">
-        <v>14159</v>
-      </c>
-      <c r="C4" s="1">
-        <v>14284</v>
-      </c>
-      <c r="D4" s="1">
-        <v>29652</v>
-      </c>
-      <c r="E4" s="1">
-        <v>14274</v>
-      </c>
-      <c r="F4" s="2">
-        <v>29781</v>
-      </c>
-      <c r="G4" s="3" t="s">
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>14322</v>
-      </c>
-      <c r="B5" s="1">
-        <v>14205</v>
-      </c>
-      <c r="C5" s="1">
-        <v>14275</v>
-      </c>
-      <c r="D5" s="1">
-        <v>14194</v>
-      </c>
-      <c r="E5" s="1">
-        <v>29679</v>
-      </c>
-      <c r="F5" s="2">
-        <v>29668</v>
-      </c>
-      <c r="G5" s="3" t="s">
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>29913</v>
-      </c>
-      <c r="B6" s="1">
-        <v>29752</v>
-      </c>
-      <c r="C6" s="1">
-        <v>14188</v>
-      </c>
-      <c r="D6" s="1">
-        <v>29691</v>
-      </c>
-      <c r="E6" s="1">
-        <v>29943</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14265</v>
-      </c>
-      <c r="G6" s="3" t="s">
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>14187</v>
-      </c>
-      <c r="B7" s="1">
-        <v>29875</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14307</v>
-      </c>
-      <c r="D7" s="1">
-        <v>14174</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14263</v>
-      </c>
-      <c r="F7" s="2">
-        <v>29653</v>
-      </c>
-      <c r="G7" s="3" t="s">
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>29912</v>
-      </c>
-      <c r="B8" s="1">
-        <v>29644</v>
-      </c>
-      <c r="C8" s="1">
-        <v>14183</v>
-      </c>
-      <c r="D8" s="1">
-        <v>29951</v>
-      </c>
-      <c r="E8" s="1">
-        <v>29702</v>
-      </c>
-      <c r="F8" s="2">
-        <v>29793</v>
-      </c>
-      <c r="G8" s="3" t="s">
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>14160</v>
-      </c>
-      <c r="B9" s="1">
-        <v>29914</v>
-      </c>
-      <c r="C9" s="1">
-        <v>14306</v>
-      </c>
-      <c r="D9" s="1">
-        <v>29703</v>
-      </c>
-      <c r="E9" s="1">
-        <v>29715</v>
-      </c>
-      <c r="F9" s="2">
-        <v>14208</v>
-      </c>
-      <c r="G9" s="3" t="s">
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>29665</v>
-      </c>
-      <c r="B10" s="1">
-        <v>14276</v>
-      </c>
-      <c r="C10" s="1">
-        <v>29901</v>
-      </c>
-      <c r="D10" s="1">
-        <v>29934</v>
-      </c>
-      <c r="E10" s="1">
-        <v>14260</v>
-      </c>
-      <c r="F10" s="2">
-        <v>14190</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>29939</v>
-      </c>
-      <c r="B11" s="1">
-        <v>14172</v>
-      </c>
-      <c r="C11" s="1">
-        <v>14163</v>
-      </c>
-      <c r="D11" s="1">
-        <v>14193</v>
-      </c>
-      <c r="E11" s="1">
-        <v>14195</v>
-      </c>
-      <c r="F11" s="2">
-        <v>29797</v>
-      </c>
-      <c r="G11" s="3" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>14161</v>
-      </c>
-      <c r="B12" s="1">
-        <v>14233</v>
-      </c>
-      <c r="C12" s="1">
-        <v>14308</v>
-      </c>
-      <c r="D12" s="1">
-        <v>29865</v>
-      </c>
-      <c r="E12" s="1">
-        <v>29655</v>
-      </c>
-      <c r="F12" s="2">
-        <v>29796</v>
-      </c>
-      <c r="G12" s="3" t="s">
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>29705</v>
-      </c>
-      <c r="B13" s="1">
-        <v>29792</v>
-      </c>
-      <c r="C13" s="1">
-        <v>29700</v>
-      </c>
-      <c r="D13" s="1">
-        <v>14201</v>
-      </c>
-      <c r="E13" s="1">
-        <v>14171</v>
-      </c>
-      <c r="F13" s="2">
-        <v>29777</v>
-      </c>
-      <c r="G13" s="3" t="s">
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>29654</v>
-      </c>
-      <c r="B14" s="1">
-        <v>29864</v>
-      </c>
-      <c r="C14" s="1">
-        <v>29704</v>
-      </c>
-      <c r="D14" s="1">
-        <v>29667</v>
-      </c>
-      <c r="E14" s="1">
-        <v>29745</v>
-      </c>
-      <c r="F14" s="2">
-        <v>29847</v>
-      </c>
-      <c r="G14" s="3" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>29898</v>
-      </c>
-      <c r="B15" s="1">
-        <v>29778</v>
-      </c>
-      <c r="C15" s="1">
-        <v>29863</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14298</v>
-      </c>
-      <c r="E15" s="1">
-        <v>29645</v>
-      </c>
-      <c r="F15" s="2">
-        <v>14192</v>
-      </c>
-      <c r="G15" s="3" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>29631</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14317</v>
-      </c>
-      <c r="C16" s="1">
-        <v>29692</v>
-      </c>
-      <c r="D16" s="1">
-        <v>29931</v>
-      </c>
-      <c r="E16" s="1">
-        <v>29643</v>
-      </c>
-      <c r="F16" s="2">
-        <v>29753</v>
-      </c>
-      <c r="G16" s="3" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>14277</v>
-      </c>
-      <c r="B17" s="1">
-        <v>29742</v>
-      </c>
-      <c r="C17" s="1">
-        <v>14231</v>
-      </c>
-      <c r="D17" s="1">
-        <v>29754</v>
-      </c>
-      <c r="E17" s="1">
-        <v>14261</v>
-      </c>
-      <c r="F17" s="2">
-        <v>29743</v>
-      </c>
-      <c r="G17" s="3" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>14184</v>
-      </c>
-      <c r="B18" s="1">
-        <v>14273</v>
-      </c>
-      <c r="C18" s="1">
-        <v>14162</v>
-      </c>
-      <c r="D18" s="1">
-        <v>14320</v>
-      </c>
-      <c r="E18" s="1">
-        <v>14186</v>
-      </c>
-      <c r="F18" s="2">
-        <v>29718</v>
-      </c>
-      <c r="G18" s="3" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>14204</v>
-      </c>
-      <c r="B19" s="1">
-        <v>29846</v>
-      </c>
-      <c r="C19" s="1">
-        <v>14288</v>
-      </c>
-      <c r="D19" s="1">
-        <v>14287</v>
-      </c>
-      <c r="E19" s="1">
-        <v>29646</v>
-      </c>
-      <c r="F19" s="2">
-        <v>29694</v>
-      </c>
-      <c r="G19" s="3" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>14182</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <v>29633</v>
-      </c>
-      <c r="G20" s="3" t="s">
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>29666</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>29693</v>
-      </c>
-      <c r="G21" s="3" t="s">
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>29948</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>29946</v>
-      </c>
-      <c r="G22" s="3" t="s">
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>29945</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>29647</v>
-      </c>
-      <c r="G23" s="3" t="s">
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>14271</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>29804</v>
-      </c>
-      <c r="G24" s="3" t="s">
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>29867</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>14207</v>
-      </c>
-      <c r="G25" s="3" t="s">
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>14200</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="3" t="s">
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1">
-        <v>29706</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="3" t="s">
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B152" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1">
-        <v>29876</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="3" t="s">
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B153" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1">
-        <v>14169</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="3" t="s">
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B154" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1">
-        <v>14315</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="3" t="s">
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B155" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1">
-        <v>29764</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="3" t="s">
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B156" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="G32" s="3" t="s">
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B157" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="7:7">
-      <c r="G33" s="3" t="s">
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="7:7">
-      <c r="G34" s="3" t="s">
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="7:7">
-      <c r="G35" s="3" t="s">
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B160" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="7:7">
-      <c r="G36" s="3" t="s">
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="7:7">
-      <c r="G37" s="3" t="s">
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B162" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="7:7">
-      <c r="G38" s="3" t="s">
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="7:7">
-      <c r="G39" s="3" t="s">
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="7:7">
-      <c r="G40" s="3" t="s">
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B165" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="7:7">
-      <c r="G41" s="3" t="s">
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="7:7">
-      <c r="G42" s="3" t="s">
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="7:7">
-      <c r="G43" s="3" t="s">
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B168" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="7:7">
-      <c r="G44" s="3"/>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F31">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  <conditionalFormatting sqref="C45:G46">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:G46">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B1:B126">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B127:B168">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
